--- a/products/TIR_manuscript/Supplemental_Tables/Supplemental_Table_2.xlsx
+++ b/products/TIR_manuscript/Supplemental_Tables/Supplemental_Table_2.xlsx
@@ -1,39 +1,525 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_Files\GCMP_TIR\immunity_microbiome\Supplemental_Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6ADCD-1B69-4BD0-8D46-53C9A338A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7C305-7A16-41DD-AA92-58ECFD8E655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB1EA2F7-56E0-4613-8E16-F6B7EE6590B3}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{A92F04C7-9F31-4F51-902A-BF4BD88DFEA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S2" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S2A" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S2B" sheetId="2" r:id="rId2"/>
+    <sheet name="Table S2C" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="185">
+  <si>
+    <t>TLR</t>
+  </si>
+  <si>
+    <t>Coral Species</t>
+  </si>
+  <si>
+    <t>Isoform</t>
+  </si>
+  <si>
+    <t>A_cytherea</t>
+  </si>
+  <si>
+    <t>BLFB01001526.1</t>
+  </si>
+  <si>
+    <t>BLFB01000879.1</t>
+  </si>
+  <si>
+    <t>BLFB01000230.1</t>
+  </si>
+  <si>
+    <t>BLFB01003200.1</t>
+  </si>
+  <si>
+    <t>BLFB01002096.1</t>
+  </si>
+  <si>
+    <t>BLFB01000626.1</t>
+  </si>
+  <si>
+    <t>BLFB01000523.1</t>
+  </si>
+  <si>
+    <t>PF00560</t>
+  </si>
+  <si>
+    <t>PF07723</t>
+  </si>
+  <si>
+    <t>PF07725</t>
+  </si>
+  <si>
+    <t>PF12799</t>
+  </si>
+  <si>
+    <t>PF13306</t>
+  </si>
+  <si>
+    <t>PF13516</t>
+  </si>
+  <si>
+    <t>PF13855</t>
+  </si>
+  <si>
+    <t>PF14580</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A_hyactintus</t>
+  </si>
+  <si>
+    <t>BLFG01001808.1</t>
+  </si>
+  <si>
+    <t>BLFG01001079.1</t>
+  </si>
+  <si>
+    <t>BLFG01000303.1</t>
+  </si>
+  <si>
+    <t>BLFG01001609.1</t>
+  </si>
+  <si>
+    <t>BLFG01000316.1</t>
+  </si>
+  <si>
+    <t>BLFG01002169.1</t>
+  </si>
+  <si>
+    <t>BLFG01000258.1</t>
+  </si>
+  <si>
+    <t>BLFG01001825.1</t>
+  </si>
+  <si>
+    <t>PF18837</t>
+  </si>
+  <si>
+    <t>Fungia</t>
+  </si>
+  <si>
+    <t>Sc0000564</t>
+  </si>
+  <si>
+    <t>Sc0000528</t>
+  </si>
+  <si>
+    <t>Sc0000235</t>
+  </si>
+  <si>
+    <t>Sc0000610</t>
+  </si>
+  <si>
+    <t>Sc0000044</t>
+  </si>
+  <si>
+    <t>xfSc0000011</t>
+  </si>
+  <si>
+    <t>Sc0000480</t>
+  </si>
+  <si>
+    <t>Sc0000000</t>
+  </si>
+  <si>
+    <t>G_fascicularis</t>
+  </si>
+  <si>
+    <t>Sc0000172</t>
+  </si>
+  <si>
+    <t>M_capitata</t>
+  </si>
+  <si>
+    <t>RDEB01000006.1</t>
+  </si>
+  <si>
+    <t>O_faveolata</t>
+  </si>
+  <si>
+    <t>NW_018150269.1</t>
+  </si>
+  <si>
+    <t>NW_018150090.1</t>
+  </si>
+  <si>
+    <t>NW_018150275.1</t>
+  </si>
+  <si>
+    <t>NW_018148815.1</t>
+  </si>
+  <si>
+    <t>NW_018149874.1</t>
+  </si>
+  <si>
+    <t>NW_018149241.1</t>
+  </si>
+  <si>
+    <t>P_damicornis</t>
+  </si>
+  <si>
+    <t>NW_020846189.1</t>
+  </si>
+  <si>
+    <t>NW_020844103.1</t>
+  </si>
+  <si>
+    <t>NW_020845543.1</t>
+  </si>
+  <si>
+    <t>NW_020846122.1</t>
+  </si>
+  <si>
+    <t>NW_020844032.1</t>
+  </si>
+  <si>
+    <t>P_lutea</t>
+  </si>
+  <si>
+    <t>Sc0000123</t>
+  </si>
+  <si>
+    <t>Sc0000357</t>
+  </si>
+  <si>
+    <t>Sc0000054</t>
+  </si>
+  <si>
+    <t>Sc0000228</t>
+  </si>
+  <si>
+    <t>Sc0000013</t>
+  </si>
+  <si>
+    <t>Sc0000057</t>
+  </si>
+  <si>
+    <t>Sc0000214</t>
+  </si>
+  <si>
+    <t>P_rus</t>
+  </si>
+  <si>
+    <t>OKRP01000126.1</t>
+  </si>
+  <si>
+    <t>OKRP01001215.1</t>
+  </si>
+  <si>
+    <t>P_verrucosa</t>
+  </si>
+  <si>
+    <t>JAAVTL010000037.1</t>
+  </si>
+  <si>
+    <t>JAAVTL010000389.1</t>
+  </si>
+  <si>
+    <t>JAAVTL010000020.1</t>
+  </si>
+  <si>
+    <t>JAAVTL010000016.1</t>
+  </si>
+  <si>
+    <t>JAAVTL010000738.1</t>
+  </si>
+  <si>
+    <t>JAAVTL010000036.1</t>
+  </si>
+  <si>
+    <t>JAAVTL010000035.1</t>
+  </si>
+  <si>
+    <t>S_pistillata</t>
+  </si>
+  <si>
+    <t>NW_019217800.1</t>
+  </si>
+  <si>
+    <t>NW_019218199.1</t>
+  </si>
+  <si>
+    <t>NW_019217853.1</t>
+  </si>
+  <si>
+    <t>NW_019217996.1</t>
+  </si>
+  <si>
+    <t>NW_019217962.1</t>
+  </si>
+  <si>
+    <t>NW_019218129.1</t>
+  </si>
+  <si>
+    <t>PF00047</t>
+  </si>
+  <si>
+    <t>PF18452</t>
+  </si>
+  <si>
+    <t>PF13927</t>
+  </si>
+  <si>
+    <t>PF13895</t>
+  </si>
+  <si>
+    <t>BLFB01000230</t>
+  </si>
+  <si>
+    <t>BLFB01000879</t>
+  </si>
+  <si>
+    <t>BLFB01002795</t>
+  </si>
+  <si>
+    <t>BLFB01000495</t>
+  </si>
+  <si>
+    <t>BLFB01001328</t>
+  </si>
+  <si>
+    <t>BLFB01003162</t>
+  </si>
+  <si>
+    <t>BLFB01002399</t>
+  </si>
+  <si>
+    <t>BLFB01003088</t>
+  </si>
+  <si>
+    <t>BLFB01001142</t>
+  </si>
+  <si>
+    <t>BLFB01003200</t>
+  </si>
+  <si>
+    <t>BLFG01000303</t>
+  </si>
+  <si>
+    <t>BLFG01001825</t>
+  </si>
+  <si>
+    <t>BLFG01001808</t>
+  </si>
+  <si>
+    <t>BLFG01000956</t>
+  </si>
+  <si>
+    <t>BLFG01000316</t>
+  </si>
+  <si>
+    <t>BLFG01002169</t>
+  </si>
+  <si>
+    <t>BLFG01001079</t>
+  </si>
+  <si>
+    <t>BLFG01001226</t>
+  </si>
+  <si>
+    <t>BLFG01000580</t>
+  </si>
+  <si>
+    <t>BLFG01000258</t>
+  </si>
+  <si>
+    <t>BLFG01002383</t>
+  </si>
+  <si>
+    <t>RDEB01000075</t>
+  </si>
+  <si>
+    <t>RDEB01000039</t>
+  </si>
+  <si>
+    <t>RDEB01000802</t>
+  </si>
+  <si>
+    <t>RDEB01000081</t>
+  </si>
+  <si>
+    <t>RDEB01000023</t>
+  </si>
+  <si>
+    <t>NW_018148536</t>
+  </si>
+  <si>
+    <t>NW_018149484</t>
+  </si>
+  <si>
+    <t>NW_018148815</t>
+  </si>
+  <si>
+    <t>NW_018149241</t>
+  </si>
+  <si>
+    <t>NW_018150090</t>
+  </si>
+  <si>
+    <t>NW_018149129</t>
+  </si>
+  <si>
+    <t>NW_018148618</t>
+  </si>
+  <si>
+    <t>NW_020847495</t>
+  </si>
+  <si>
+    <t>NW_020844867</t>
+  </si>
+  <si>
+    <t>NW_020846928</t>
+  </si>
+  <si>
+    <t>NW_020844103</t>
+  </si>
+  <si>
+    <t>NW_020846063</t>
+  </si>
+  <si>
+    <t>NW_020845049</t>
+  </si>
+  <si>
+    <t>OKRP01003704</t>
+  </si>
+  <si>
+    <t>OKRP01001912</t>
+  </si>
+  <si>
+    <t>OKRP01000307</t>
+  </si>
+  <si>
+    <t>OKRP01000361</t>
+  </si>
+  <si>
+    <t>OKRP01000670</t>
+  </si>
+  <si>
+    <t>OKRP01000080</t>
+  </si>
+  <si>
+    <t>JAAVTL010000738</t>
+  </si>
+  <si>
+    <t>JAAVTL010000308</t>
+  </si>
+  <si>
+    <t>JAAVTL010000090</t>
+  </si>
+  <si>
+    <t>JAAVTL010001015</t>
+  </si>
+  <si>
+    <t>JAAVTL010000035</t>
+  </si>
+  <si>
+    <t>JAAVTL010000036</t>
+  </si>
+  <si>
+    <t>JAAVTL010014453</t>
+  </si>
+  <si>
+    <t>NW_019217996</t>
+  </si>
+  <si>
+    <t>NW_019217824</t>
+  </si>
+  <si>
+    <t>NW_019217962</t>
+  </si>
+  <si>
+    <t>NW_019218591</t>
+  </si>
+  <si>
+    <t>NW_019217853</t>
+  </si>
+  <si>
+    <t>NW_019217901</t>
+  </si>
+  <si>
+    <t>NW_019217833</t>
+  </si>
+  <si>
+    <t>NW_019218117</t>
+  </si>
+  <si>
+    <t>Sc0000079</t>
+  </si>
+  <si>
+    <t>Sc0000439</t>
+  </si>
+  <si>
+    <t>Sc0000023</t>
+  </si>
+  <si>
+    <t>Sc0001010</t>
+  </si>
+  <si>
+    <t>Sc0000257</t>
+  </si>
+  <si>
+    <t>xfSc0000984</t>
+  </si>
+  <si>
+    <t>xfSc0000959</t>
+  </si>
+  <si>
+    <t>xfSc0003746</t>
+  </si>
+  <si>
+    <t>Sc0000237</t>
+  </si>
+  <si>
+    <t>xfSc0000006</t>
+  </si>
+  <si>
+    <t>Sc0000445</t>
+  </si>
+  <si>
+    <t>Sc0000139</t>
+  </si>
+  <si>
+    <t>Sc0000534</t>
+  </si>
+  <si>
+    <t>Sc0000067</t>
+  </si>
+  <si>
+    <t>Sc0000946</t>
+  </si>
+  <si>
+    <t>Sc0000080</t>
+  </si>
+  <si>
+    <t>Sc0000356</t>
+  </si>
+  <si>
+    <t>Sc0000330</t>
+  </si>
   <si>
     <t>Species</t>
   </si>
@@ -71,26 +557,38 @@
     <t>POR_Porites_rus</t>
   </si>
   <si>
-    <t>TIR</t>
-  </si>
-  <si>
-    <t>LRR</t>
-  </si>
-  <si>
-    <t>Ig</t>
-  </si>
-  <si>
-    <t>Table S2: Distribution of unique TIR, LRR, and IG domain isoforms across sequenced coral genomes</t>
-  </si>
-  <si>
-    <t>Unique isofom copies of TIR, LRR, and Ig domains as annotated using Transdecoder to predict open reading frames followed by HMMER searched for the domains in the prediced reading frames.</t>
+    <t>IL1R</t>
+  </si>
+  <si>
+    <t>Pfam Domains (LRR)</t>
+  </si>
+  <si>
+    <t>Pfam Domain (Ig)</t>
+  </si>
+  <si>
+    <t>Composition of IL-1R proteins by number of Ig Pfam domains attached to a TIR domain. An "X" indicates presence of the Pfam domain in the coral isoform.</t>
+  </si>
+  <si>
+    <t>Composition of TLR proteins by number of LRR Pfam domains were present with a TIR domain. An "X" indicates presence of the Pfam domain in the coral isoform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of IL-1R and TLR genes per coral species annotated as having one TIR domain and at least one LRR (TLR) or Ig (IL-1R). Domains were determined using HMMER Pfam domains. </t>
+  </si>
+  <si>
+    <t>Table 2C: TLR composition by coral species</t>
+  </si>
+  <si>
+    <t>Table S2B: IL-1R composition by coral species</t>
+  </si>
+  <si>
+    <t>Table S2A: Total number of IL-1R and TLR genes by coral species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +597,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -116,6 +621,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -144,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -152,20 +665,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,208 +1132,3361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D7FC5C-6CB8-421F-AFBB-D8C6724D5DA4}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C3A32C-7309-458D-9038-04F31986788A}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>426</v>
-      </c>
-      <c r="D4" s="3">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
         <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>528</v>
-      </c>
-      <c r="D5" s="3">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>339</v>
-      </c>
-      <c r="D6" s="3">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>838</v>
-      </c>
-      <c r="D7" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>287</v>
-      </c>
-      <c r="D8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3">
-        <v>549</v>
-      </c>
-      <c r="D9" s="3">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>373</v>
-      </c>
-      <c r="D10" s="3">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>454</v>
-      </c>
-      <c r="D11" s="3">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>536</v>
-      </c>
-      <c r="D12" s="3">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>612</v>
-      </c>
-      <c r="D13" s="3">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3">
-        <v>519</v>
-      </c>
-      <c r="D14" s="3">
-        <v>764</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D8196-7FDF-48F1-988D-B15BFC1A1E28}">
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2105E4DA-0F7D-4415-909E-F1CF536015AB}">
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>